--- a/guias/python1/points.xlsx
+++ b/guias/python1/points.xlsx
@@ -383,10 +383,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>48.01177339354936</v>
+        <v>37.42362256310417</v>
       </c>
       <c r="C2" t="n">
-        <v>91.1372631383073</v>
+        <v>80.23211787956883</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>38.15244009983289</v>
+        <v>70.7665436303854</v>
       </c>
       <c r="C3" t="n">
-        <v>6.23297457080999</v>
+        <v>60.77470094190781</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>88.15864807280137</v>
+        <v>93.83728913890714</v>
       </c>
       <c r="C4" t="n">
-        <v>30.58670449016763</v>
+        <v>43.9181395332884</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>88.76112385897113</v>
+        <v>44.72751047924292</v>
       </c>
       <c r="C5" t="n">
-        <v>10.10024022807458</v>
+        <v>59.12692820094928</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.735247888719698</v>
+        <v>8.066461469726505</v>
       </c>
       <c r="C6" t="n">
-        <v>36.54045465736484</v>
+        <v>40.9904133950383</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>92.90025495516358</v>
+        <v>37.02739608545932</v>
       </c>
       <c r="C7" t="n">
-        <v>54.83326839913455</v>
+        <v>32.72593960258558</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.79107946779748</v>
+        <v>3.0596866857448</v>
       </c>
       <c r="C8" t="n">
-        <v>56.4348065184838</v>
+        <v>64.81576345476572</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>53.6512902150121</v>
+        <v>99.55820618483956</v>
       </c>
       <c r="C9" t="n">
-        <v>57.24189052154692</v>
+        <v>13.64667920223465</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>79.86079508009028</v>
+        <v>55.20841350205007</v>
       </c>
       <c r="C10" t="n">
-        <v>40.76692028940111</v>
+        <v>9.900939910100126</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>87.2241941405486</v>
+        <v>67.16251420150178</v>
       </c>
       <c r="C11" t="n">
-        <v>7.311035001321797</v>
+        <v>26.94004983648399</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>38.86844533820685</v>
+        <v>67.40223946290158</v>
       </c>
       <c r="C12" t="n">
-        <v>8.135514702641867</v>
+        <v>74.06503819329434</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.305871895579346</v>
+        <v>16.34030034424152</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92612662224045</v>
+        <v>94.01335928292178</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>44.64077687394091</v>
+        <v>99.70118783929067</v>
       </c>
       <c r="C14" t="n">
-        <v>28.86936046404928</v>
+        <v>29.42751254999582</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>60.63529939034809</v>
+        <v>88.00967714281224</v>
       </c>
       <c r="C15" t="n">
-        <v>40.97332965066032</v>
+        <v>51.46584620298719</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>75.85777288163239</v>
+        <v>49.86594133170419</v>
       </c>
       <c r="C16" t="n">
-        <v>17.68772470637143</v>
+        <v>42.17550134167482</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>61.32412407769567</v>
+        <v>12.91084402940015</v>
       </c>
       <c r="C17" t="n">
-        <v>74.4558181370992</v>
+        <v>89.28059570386522</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>91.60882010068958</v>
+        <v>46.13688305909724</v>
       </c>
       <c r="C18" t="n">
-        <v>91.39627045539658</v>
+        <v>72.71051459104821</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1875631025829994</v>
+        <v>57.19568359330813</v>
       </c>
       <c r="C19" t="n">
-        <v>39.72246963169665</v>
+        <v>52.4884505670788</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>31.74602543652298</v>
+        <v>57.26053312493936</v>
       </c>
       <c r="C20" t="n">
-        <v>19.50489391487249</v>
+        <v>64.70341288091402</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>33.45581175434936</v>
+        <v>66.65365056899265</v>
       </c>
       <c r="C21" t="n">
-        <v>2.6885215166914</v>
+        <v>32.61593864323311</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>84.93211766701177</v>
+        <v>99.65763804399107</v>
       </c>
       <c r="C22" t="n">
-        <v>71.65045707532539</v>
+        <v>31.65254603623864</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>76.98218685158272</v>
+        <v>62.42152382301918</v>
       </c>
       <c r="C23" t="n">
-        <v>82.9970252281704</v>
+        <v>63.00531726598988</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>32.31753735751588</v>
+        <v>90.10696749062431</v>
       </c>
       <c r="C24" t="n">
-        <v>24.19485648779406</v>
+        <v>57.44615273471446</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>27.10203432770372</v>
+        <v>62.35077048979367</v>
       </c>
       <c r="C25" t="n">
-        <v>89.32918995273414</v>
+        <v>0.6646693918388125</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>38.69132353855229</v>
+        <v>88.97419905604957</v>
       </c>
       <c r="C26" t="n">
-        <v>27.2941127421065</v>
+        <v>44.66156425659742</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>81.50145306097676</v>
+        <v>78.08285805635047</v>
       </c>
       <c r="C27" t="n">
-        <v>61.32761951198567</v>
+        <v>8.862849902855864</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>37.78212328570341</v>
+        <v>51.37561444951038</v>
       </c>
       <c r="C28" t="n">
-        <v>1.428471315170654</v>
+        <v>93.86241659889849</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>94.10696015254472</v>
+        <v>53.56109906465844</v>
       </c>
       <c r="C29" t="n">
-        <v>13.05872797753121</v>
+        <v>74.11644002767595</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>51.56310051841305</v>
+        <v>88.85487330777356</v>
       </c>
       <c r="C30" t="n">
-        <v>31.64000279352005</v>
+        <v>80.39990287066163</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>44.16559468992924</v>
+        <v>22.98698076501367</v>
       </c>
       <c r="C31" t="n">
-        <v>20.74122024375205</v>
+        <v>42.48254018318836</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>57.5192997798252</v>
+        <v>14.14784930238903</v>
       </c>
       <c r="C32" t="n">
-        <v>76.33883532585899</v>
+        <v>27.68517713119696</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>32.21356388471654</v>
+        <v>54.32556051229634</v>
       </c>
       <c r="C33" t="n">
-        <v>91.38795189843407</v>
+        <v>22.83826365232248</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>73.17402928085221</v>
+        <v>35.85622134743094</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56836106879344</v>
+        <v>54.63063289411577</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>98.80808943588364</v>
+        <v>19.58901259218525</v>
       </c>
       <c r="C35" t="n">
-        <v>61.13422777977971</v>
+        <v>97.84089834618494</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>88.59334447632634</v>
+        <v>17.51105410199606</v>
       </c>
       <c r="C36" t="n">
-        <v>67.49685228924919</v>
+        <v>67.95789588123753</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>40.58889663437154</v>
+        <v>23.15352156024458</v>
       </c>
       <c r="C37" t="n">
-        <v>57.78206987885432</v>
+        <v>21.72855838709325</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>36.38314276524677</v>
+        <v>57.33672862858717</v>
       </c>
       <c r="C38" t="n">
-        <v>94.14827575127131</v>
+        <v>95.72365549562213</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>35.61497019968349</v>
+        <v>60.86109751927767</v>
       </c>
       <c r="C39" t="n">
-        <v>73.0540676924916</v>
+        <v>13.51453402901223</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>91.68322042895632</v>
+        <v>48.98929175842918</v>
       </c>
       <c r="C40" t="n">
-        <v>64.46332155899003</v>
+        <v>90.89600738026759</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>81.01947310741218</v>
+        <v>81.78852078538905</v>
       </c>
       <c r="C41" t="n">
-        <v>63.85711749212925</v>
+        <v>63.93960411184756</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>33.83048452353054</v>
+        <v>1.708973027745908</v>
       </c>
       <c r="C42" t="n">
-        <v>7.374802416282966</v>
+        <v>97.42829009612694</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>95.67110489283377</v>
+        <v>72.99336747275498</v>
       </c>
       <c r="C43" t="n">
-        <v>27.60585603766705</v>
+        <v>82.25133866643408</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>28.31321293200574</v>
+        <v>41.29127336617474</v>
       </c>
       <c r="C44" t="n">
-        <v>22.11710284444587</v>
+        <v>94.7577510974721</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>29.82191669129742</v>
+        <v>20.48331684936035</v>
       </c>
       <c r="C45" t="n">
-        <v>99.72629554204427</v>
+        <v>94.08332005826593</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>40.31412908537573</v>
+        <v>10.48254545734867</v>
       </c>
       <c r="C46" t="n">
-        <v>80.4834593389126</v>
+        <v>77.05431927188212</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>72.95222029623703</v>
+        <v>26.19255355046642</v>
       </c>
       <c r="C47" t="n">
-        <v>16.25066518662114</v>
+        <v>14.17569786683675</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01557410975140394</v>
+        <v>47.51474571504145</v>
       </c>
       <c r="C48" t="n">
-        <v>10.46492400831263</v>
+        <v>38.21603021572712</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>60.75097666654818</v>
+        <v>92.95841178400008</v>
       </c>
       <c r="C49" t="n">
-        <v>74.34799060553351</v>
+        <v>89.26189715500462</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>3.989375527799066</v>
+        <v>3.996670908572431</v>
       </c>
       <c r="C50" t="n">
-        <v>94.76167080990425</v>
+        <v>59.14841469581419</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>2.651525924823817</v>
+        <v>57.64030737316595</v>
       </c>
       <c r="C51" t="n">
-        <v>46.10174846007426</v>
+        <v>46.10458143055721</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>84.89443827783337</v>
+        <v>62.13484507133201</v>
       </c>
       <c r="C52" t="n">
-        <v>19.82554380751776</v>
+        <v>17.97584945086555</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>57.94047777439991</v>
+        <v>91.3549339973697</v>
       </c>
       <c r="C53" t="n">
-        <v>82.12388391905579</v>
+        <v>43.5363218654696</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>40.66414899425021</v>
+        <v>77.71308936937372</v>
       </c>
       <c r="C54" t="n">
-        <v>5.803072098682438</v>
+        <v>34.47795649107924</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>27.86266980404396</v>
+        <v>4.411302982592358</v>
       </c>
       <c r="C55" t="n">
-        <v>20.08706896567811</v>
+        <v>30.25150052088284</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>15.03531845921384</v>
+        <v>84.22350572681908</v>
       </c>
       <c r="C56" t="n">
-        <v>28.554570568715</v>
+        <v>56.12496487733889</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>21.11529514057904</v>
+        <v>84.82545581860435</v>
       </c>
       <c r="C57" t="n">
-        <v>78.67035306536982</v>
+        <v>30.5221735875753</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>93.9427047870045</v>
+        <v>12.22854647845868</v>
       </c>
       <c r="C58" t="n">
-        <v>75.40982051265686</v>
+        <v>77.7500193327529</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>39.68022072476985</v>
+        <v>21.87422477894965</v>
       </c>
       <c r="C59" t="n">
-        <v>75.24938909508086</v>
+        <v>95.14124829550249</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>29.76477722958135</v>
+        <v>65.9331764829581</v>
       </c>
       <c r="C60" t="n">
-        <v>63.01540465424353</v>
+        <v>85.81871076436593</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>2.310901966480161</v>
+        <v>23.57763532572569</v>
       </c>
       <c r="C61" t="n">
-        <v>45.30605288886817</v>
+        <v>85.35369408065667</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>72.47424123681276</v>
+        <v>58.86257627994976</v>
       </c>
       <c r="C62" t="n">
-        <v>21.05450550207667</v>
+        <v>72.11785789720908</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>49.05696661039338</v>
+        <v>18.56320950312768</v>
       </c>
       <c r="C63" t="n">
-        <v>87.01405698049351</v>
+        <v>71.78901487697331</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>20.86343411089469</v>
+        <v>21.35012999257476</v>
       </c>
       <c r="C64" t="n">
-        <v>78.27043494741062</v>
+        <v>3.011248188545279</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>21.16275571033287</v>
+        <v>48.52087738379785</v>
       </c>
       <c r="C65" t="n">
-        <v>48.72696036814715</v>
+        <v>45.42608252590533</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>57.20807440855246</v>
+        <v>79.90079296427923</v>
       </c>
       <c r="C66" t="n">
-        <v>97.06298432181548</v>
+        <v>73.51694995914328</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>15.30111218829621</v>
+        <v>22.40014457223393</v>
       </c>
       <c r="C67" t="n">
-        <v>69.65390948527033</v>
+        <v>97.84862061701472</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>56.34174759280285</v>
+        <v>42.37037543454191</v>
       </c>
       <c r="C68" t="n">
-        <v>1.555103094410171</v>
+        <v>14.32810995487893</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>75.59576606477675</v>
+        <v>13.99556497319838</v>
       </c>
       <c r="C69" t="n">
-        <v>42.32770533110198</v>
+        <v>7.543730926180459</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>91.05793420046894</v>
+        <v>30.79689329628184</v>
       </c>
       <c r="C70" t="n">
-        <v>19.63178638199166</v>
+        <v>81.73365584382553</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>83.16221295222955</v>
+        <v>47.60569074803514</v>
       </c>
       <c r="C71" t="n">
-        <v>7.398488065268105</v>
+        <v>72.10273015431228</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>62.19321399241553</v>
+        <v>80.14255978703555</v>
       </c>
       <c r="C72" t="n">
-        <v>31.79251661444333</v>
+        <v>79.34252554265294</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>30.16657956760089</v>
+        <v>91.94497459239273</v>
       </c>
       <c r="C73" t="n">
-        <v>86.30953550325592</v>
+        <v>56.97897115553368</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>4.983295776232966</v>
+        <v>74.72415802588647</v>
       </c>
       <c r="C74" t="n">
-        <v>98.46456980626034</v>
+        <v>60.13268642854832</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>77.20611586154416</v>
+        <v>68.17156894645173</v>
       </c>
       <c r="C75" t="n">
-        <v>64.36496458878882</v>
+        <v>13.4335550799846</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>1.082003997451764</v>
+        <v>58.31017660394397</v>
       </c>
       <c r="C76" t="n">
-        <v>91.77965608432143</v>
+        <v>88.01920034387413</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>51.68477154231592</v>
+        <v>50.04385536135513</v>
       </c>
       <c r="C77" t="n">
-        <v>21.80328302967515</v>
+        <v>84.30782937472416</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>17.02303922108349</v>
+        <v>38.56782090837848</v>
       </c>
       <c r="C78" t="n">
-        <v>86.90176191861696</v>
+        <v>64.64581393301577</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>38.50976655092635</v>
+        <v>89.92505029723343</v>
       </c>
       <c r="C79" t="n">
-        <v>61.38567311981004</v>
+        <v>35.8311238867098</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>57.24941085718071</v>
+        <v>42.98211913262951</v>
       </c>
       <c r="C80" t="n">
-        <v>3.428491975170722</v>
+        <v>15.57346712937223</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>43.82595285394279</v>
+        <v>44.81446055163049</v>
       </c>
       <c r="C81" t="n">
-        <v>85.52291440345634</v>
+        <v>46.36163757500814</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>60.12518303076625</v>
+        <v>21.51455957004082</v>
       </c>
       <c r="C82" t="n">
-        <v>7.16266430703979</v>
+        <v>48.33720963635042</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>84.57773018360307</v>
+        <v>14.10485927904359</v>
       </c>
       <c r="C83" t="n">
-        <v>75.01612438677977</v>
+        <v>99.699823921141</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>44.68361079340545</v>
+        <v>1.312835759502717</v>
       </c>
       <c r="C84" t="n">
-        <v>52.28421861288703</v>
+        <v>77.42700672015404</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>48.11105713930301</v>
+        <v>47.96003198861545</v>
       </c>
       <c r="C85" t="n">
-        <v>62.57882111554747</v>
+        <v>49.71073939910195</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>58.86603695088409</v>
+        <v>38.1150968652521</v>
       </c>
       <c r="C86" t="n">
-        <v>63.98646111155579</v>
+        <v>10.42266863704407</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>29.67183876280989</v>
+        <v>15.78274392446096</v>
       </c>
       <c r="C87" t="n">
-        <v>36.01030459248331</v>
+        <v>56.3381763206932</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>57.40373223024118</v>
+        <v>11.95868134841233</v>
       </c>
       <c r="C88" t="n">
-        <v>19.93831334390318</v>
+        <v>75.43194168286716</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>8.012663211445116</v>
+        <v>89.23345976311928</v>
       </c>
       <c r="C89" t="n">
-        <v>56.06284449277784</v>
+        <v>77.74036042296186</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>56.9630665262366</v>
+        <v>15.21600293757274</v>
       </c>
       <c r="C90" t="n">
-        <v>88.68555952176918</v>
+        <v>22.8485882266072</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4270210436854605</v>
+        <v>27.83106518570232</v>
       </c>
       <c r="C91" t="n">
-        <v>42.41047988954276</v>
+        <v>47.28885115380411</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>58.56643095715712</v>
+        <v>4.05518133367252</v>
       </c>
       <c r="C92" t="n">
-        <v>72.41291978101427</v>
+        <v>37.27088432948739</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>48.84089155663297</v>
+        <v>66.33307283367722</v>
       </c>
       <c r="C93" t="n">
-        <v>69.08066278443749</v>
+        <v>65.15517759776603</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>88.92891599720754</v>
+        <v>64.76753212492723</v>
       </c>
       <c r="C94" t="n">
-        <v>78.34682889179659</v>
+        <v>97.05075571305474</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>2.008461721911858</v>
+        <v>40.78204206513647</v>
       </c>
       <c r="C95" t="n">
-        <v>93.03357181700481</v>
+        <v>41.53560632888779</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>83.98506976183492</v>
+        <v>62.88314540673856</v>
       </c>
       <c r="C96" t="n">
-        <v>95.60168387353254</v>
+        <v>61.4825706714651</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>31.88286689747274</v>
+        <v>49.95154490627412</v>
       </c>
       <c r="C97" t="n">
-        <v>32.97916149170332</v>
+        <v>26.12985692678416</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>94.86389733319024</v>
+        <v>13.61002533902045</v>
       </c>
       <c r="C98" t="n">
-        <v>80.69326882580512</v>
+        <v>90.09083140781766</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>29.98936112747997</v>
+        <v>51.11829831906939</v>
       </c>
       <c r="C99" t="n">
-        <v>36.62231200045882</v>
+        <v>68.31149925948631</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>89.09500692825179</v>
+        <v>96.55230335473509</v>
       </c>
       <c r="C100" t="n">
-        <v>13.70598248273717</v>
+        <v>69.66902435386299</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>86.71388975110588</v>
+        <v>51.57449992513354</v>
       </c>
       <c r="C101" t="n">
-        <v>71.59673843999342</v>
+        <v>39.88805361606822</v>
       </c>
     </row>
   </sheetData>
